--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -435,6 +450,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +553,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,265 +575,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -836,2825 +897,3251 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -898,3250 +901,3250 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,24 +47,27 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -455,7 +458,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -544,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -556,7 +559,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,13 +679,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -699,13 +702,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -722,13 +725,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -745,13 +748,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -768,7 +771,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -860,7 +863,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -882,3269 +885,3292 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>33</v>
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -422,22 +428,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto riconoscimento paterno</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1576,22 +1582,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>34</v>
@@ -1599,22 +1605,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,22 +1743,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>34</v>
@@ -1760,22 +1766,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1783,22 +1789,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1806,22 +1812,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1829,22 +1835,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1921,22 +1927,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2013,22 +2019,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2036,22 +2042,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2082,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2128,22 +2134,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2243,22 +2249,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,22 +2341,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2358,22 +2364,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,22 +2433,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2473,22 +2479,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>21</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,22 +2548,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2565,22 +2571,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2591,16 +2597,16 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,7 +2620,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>20</v>
@@ -2623,7 +2629,7 @@
         <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,16 +2643,16 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,10 +2663,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2669,7 +2675,7 @@
         <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2709,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,16 +2732,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>104</v>
@@ -2749,10 +2755,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>20</v>
@@ -2761,7 +2767,7 @@
         <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,10 +2916,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2922,7 +2928,7 @@
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2933,10 +2939,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2945,7 +2951,7 @@
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2956,10 +2962,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2968,7 +2974,7 @@
         <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,22 +3238,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3255,22 +3261,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3278,22 +3284,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3301,22 +3307,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3324,19 +3330,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3376,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3422,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3468,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3491,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3514,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,22 +3537,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3554,22 +3560,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>34</v>
@@ -3577,10 +3583,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3589,44 +3595,44 @@
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>20</v>
@@ -3635,541 +3641,633 @@
         <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -464,7 +464,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -565,7 +568,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4161,7 +4164,7 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
@@ -4181,19 +4184,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4204,19 +4207,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>24</v>
@@ -4227,10 +4230,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
@@ -4239,7 +4242,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4250,10 +4253,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
@@ -4262,7 +4265,7 @@
         <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4164,7 +4161,7 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
@@ -4184,19 +4181,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4207,19 +4204,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>24</v>
@@ -4230,10 +4227,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
@@ -4242,7 +4239,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4253,10 +4250,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
@@ -4265,7 +4262,7 @@
         <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4161,7 +4164,7 @@
         <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
@@ -4181,19 +4184,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4204,19 +4207,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>24</v>
@@ -4227,10 +4230,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
@@ -4239,7 +4242,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4250,10 +4253,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
@@ -4262,7 +4265,7 @@
         <v>101</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -300,6 +300,36 @@
   </si>
   <si>
     <t>27,43</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -556,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -566,7 +596,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2137,22 +2167,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2160,22 +2190,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2183,19 +2213,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2206,22 +2236,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2229,22 +2259,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2252,22 +2282,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2275,19 +2305,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,22 +2328,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2321,19 +2351,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,22 +2374,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2367,22 +2397,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2390,19 +2420,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,22 +2443,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2436,19 +2466,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,22 +2489,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2482,22 +2512,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2505,22 +2535,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2528,19 +2558,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,22 +2581,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2574,22 +2604,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2597,19 +2627,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,22 +2650,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2643,19 +2673,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,22 +2696,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2689,22 +2719,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2712,19 +2742,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2765,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2788,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2811,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,22 +2834,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2827,19 +2857,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,22 +2880,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2873,22 +2903,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2896,19 +2926,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2949,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2972,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2995,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,19 +3018,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3041,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,16 +3064,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>116</v>
@@ -3057,19 +3087,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3110,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3133,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3156,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3179,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3202,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3225,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3248,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3271,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3294,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,22 +3317,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3310,22 +3340,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3333,19 +3363,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3386,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3409,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3432,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3455,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3478,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3501,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,19 +3524,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3547,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3570,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3593,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,22 +3616,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3609,19 +3639,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>22</v>
@@ -3632,22 +3662,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3655,622 +3685,944 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E161" s="2" t="s">
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -3254,7 +3254,7 @@
         <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1638,22 +1644,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>34</v>
@@ -1661,22 +1667,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1799,22 +1805,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
@@ -1868,22 +1874,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1891,22 +1897,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1914,22 +1920,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2006,22 +2012,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2075,22 +2081,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2098,22 +2104,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2121,22 +2127,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2190,22 +2196,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2259,22 +2265,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2282,22 +2288,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2305,22 +2311,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2328,22 +2334,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2443,22 +2449,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,22 +2495,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>34</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>21</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2558,22 +2564,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2581,22 +2587,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2650,22 +2656,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2696,22 +2702,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
@@ -2742,19 +2748,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2765,22 +2771,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2788,22 +2794,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2834,22 +2840,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2880,22 +2886,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -2929,7 +2935,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2938,7 +2944,7 @@
         <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
         <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2975,19 +2981,19 @@
         <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2995,10 +3001,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3007,7 +3013,7 @@
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,16 +3070,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>116</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3162,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3300,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3346,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3363,10 +3369,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -3375,7 +3381,7 @@
         <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3386,10 +3392,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3398,7 +3404,7 @@
         <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3415,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3438,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3484,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3507,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3530,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3553,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3576,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3599,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3622,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3639,22 +3645,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3662,22 +3668,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3685,19 +3691,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3708,19 +3714,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3731,22 +3737,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3754,22 +3760,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3777,19 +3783,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3800,19 +3806,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3823,19 +3829,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3846,19 +3852,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3869,19 +3875,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3892,19 +3898,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3915,19 +3921,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3938,22 +3944,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3961,22 +3967,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -3984,19 +3990,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4007,79 +4013,79 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
@@ -4088,541 +4094,656 @@
         <v>158</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="2" t="s">
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1667,22 +1673,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1851,22 +1857,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1874,22 +1880,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
@@ -1943,22 +1949,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2012,22 +2018,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2127,22 +2133,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2150,22 +2156,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,22 +2248,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2311,22 +2317,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2334,22 +2340,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2357,22 +2363,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,22 +2524,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,22 +2570,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2587,22 +2593,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>34</v>
@@ -2610,22 +2616,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2633,22 +2639,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2702,22 +2708,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2725,22 +2731,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2748,22 +2754,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2771,22 +2777,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2794,22 +2800,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2840,22 +2846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2863,22 +2869,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2909,22 +2915,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2955,22 +2961,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2978,22 +2984,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3004,7 +3010,7 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3013,7 +3019,7 @@
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3050,19 +3056,19 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3070,10 +3076,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3082,7 +3088,7 @@
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,10 +3191,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>20</v>
@@ -3197,7 +3203,7 @@
         <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3461,10 +3467,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3473,7 +3479,7 @@
         <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3484,10 +3490,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3496,7 +3502,7 @@
         <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3576,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3668,19 +3674,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3691,19 +3697,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3714,19 +3720,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3737,22 +3743,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3760,22 +3766,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3783,19 +3789,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3806,22 +3812,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3829,22 +3835,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3852,19 +3858,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3875,19 +3881,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3898,19 +3904,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3921,19 +3927,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3967,19 +3973,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3990,19 +3996,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4019,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4036,22 +4042,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>34</v>
@@ -4059,22 +4065,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>34</v>
@@ -4082,19 +4088,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4105,10 +4111,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4117,633 +4123,725 @@
         <v>160</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B180" s="2" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1696,22 +1702,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1719,22 +1725,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1880,22 +1886,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1903,22 +1909,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1926,22 +1932,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
@@ -1972,22 +1978,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,22 +2024,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2041,22 +2047,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2179,22 +2185,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2202,22 +2208,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2225,22 +2231,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,22 +2300,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2363,22 +2369,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2386,22 +2392,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2409,22 +2415,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2432,22 +2438,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,22 +2576,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,22 +2622,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2639,22 +2645,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>34</v>
@@ -2662,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2685,22 +2691,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2708,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,22 +2760,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2777,22 +2783,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2800,22 +2806,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2823,22 +2829,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2846,22 +2852,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2869,22 +2875,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,22 +2921,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2938,22 +2944,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,22 +2990,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,22 +3036,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3053,22 +3059,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3079,7 +3085,7 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3088,7 +3094,7 @@
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3125,19 +3131,19 @@
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3145,10 +3151,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3157,7 +3163,7 @@
         <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,10 +3266,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>20</v>
@@ -3272,7 +3278,7 @@
         <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,10 +3542,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3548,7 +3554,7 @@
         <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,10 +3565,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3571,7 +3577,7 @@
         <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3680,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3772,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3795,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,22 +3818,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3835,22 +3841,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,22 +3887,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3904,22 +3910,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>34</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,19 +4094,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4111,22 +4117,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>34</v>
@@ -4134,22 +4140,22 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>34</v>
@@ -4157,19 +4163,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4180,10 +4186,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4192,656 +4198,748 @@
         <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G180" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B184" s="2" t="s">
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -311,6 +398,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,9 +461,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -515,9 +608,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -546,6 +636,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -604,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1087,312 +1183,312 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1403,19 +1499,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1426,19 +1522,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1449,19 +1545,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1472,19 +1568,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1591,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1614,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1637,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1660,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1683,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1706,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1729,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1752,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1775,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1725,22 +1821,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1748,19 +1844,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1867,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1890,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1913,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1936,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1959,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1982,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,22 +2005,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1932,19 +2028,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1955,22 +2051,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1978,22 +2074,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -2001,19 +2097,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,306 +2120,306 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -2332,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>103</v>
@@ -2341,12 +2437,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>104</v>
@@ -2355,21 +2451,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>106</v>
@@ -2378,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>107</v>
@@ -2387,12 +2483,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>108</v>
@@ -2401,21 +2497,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>110</v>
@@ -2424,220 +2520,220 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2645,19 +2741,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,22 +2764,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2691,22 +2787,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2714,19 +2810,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2833,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,22 +2856,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>34</v>
@@ -2783,22 +2879,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2806,22 +2902,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2829,22 +2925,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2852,22 +2948,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2875,22 +2971,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2898,19 +2994,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,22 +3017,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2944,22 +3040,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2967,22 +3063,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -2990,19 +3086,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,22 +3109,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3036,19 +3132,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,22 +3155,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3082,19 +3178,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,22 +3201,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3128,22 +3224,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3151,19 +3247,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3270,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3293,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3316,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,22 +3339,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3266,19 +3362,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,22 +3385,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3312,22 +3408,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3335,22 +3431,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3358,19 +3454,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3477,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3500,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3523,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3546,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3569,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3592,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,22 +3615,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3542,19 +3638,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,22 +3661,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3588,22 +3684,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3611,19 +3707,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3730,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,22 +3753,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3680,22 +3776,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3703,19 +3799,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3726,22 +3822,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3749,19 +3845,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,22 +3868,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3795,19 +3891,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,22 +3914,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3841,22 +3937,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3864,19 +3960,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,22 +3983,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -3910,22 +4006,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>34</v>
@@ -3933,19 +4029,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,22 +4052,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -3979,16 +4075,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>139</v>
@@ -4002,22 +4098,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4025,22 +4121,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4048,19 +4144,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4167,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,16 +4190,16 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>149</v>
@@ -4117,19 +4213,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4236,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4259,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,22 +4282,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>34</v>
@@ -4209,22 +4305,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>34</v>
@@ -4232,19 +4328,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4255,617 +4351,617 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4876,22 +4972,22 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>34</v>
@@ -4899,19 +4995,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4922,24 +5018,944 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -700,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2445,7 +2445,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2468,7 +2468,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2477,7 +2477,7 @@
         <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2491,7 +2491,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2500,7 +2500,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2514,7 +2514,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2523,7 +2523,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2537,7 +2537,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2546,7 +2546,7 @@
         <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2560,7 +2560,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2569,7 +2569,7 @@
         <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2583,7 +2583,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2592,7 +2592,7 @@
         <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2615,7 +2615,7 @@
         <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2629,7 +2629,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2638,7 +2638,7 @@
         <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2652,7 +2652,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2661,7 +2661,7 @@
         <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2675,7 +2675,7 @@
         <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2684,7 +2684,7 @@
         <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2695,25 +2695,25 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -2721,19 +2721,19 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>34</v>
@@ -2744,16 +2744,16 @@
         <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2767,16 +2767,16 @@
         <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2790,7 +2790,7 @@
         <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>20</v>
@@ -2799,7 +2799,7 @@
         <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>20</v>
@@ -2822,7 +2822,7 @@
         <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2836,7 +2836,7 @@
         <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>20</v>
@@ -2845,7 +2845,7 @@
         <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2859,16 +2859,16 @@
         <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2882,7 +2882,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2891,10 +2891,10 @@
         <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2905,7 +2905,7 @@
         <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2914,10 +2914,10 @@
         <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2928,7 +2928,7 @@
         <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2937,10 +2937,10 @@
         <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2951,7 +2951,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2960,7 +2960,7 @@
         <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
@@ -2974,19 +2974,19 @@
         <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2997,7 +2997,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>20</v>
@@ -3006,7 +3006,7 @@
         <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3020,19 @@
         <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -3043,7 +3043,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3052,7 +3052,7 @@
         <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>21</v>
@@ -3066,7 +3066,7 @@
         <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -3075,10 +3075,10 @@
         <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3089,7 +3089,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3098,10 +3098,10 @@
         <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3112,7 +3112,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3121,10 +3121,10 @@
         <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3135,7 +3135,7 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3144,10 +3144,10 @@
         <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3158,7 +3158,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3167,10 +3167,10 @@
         <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3181,7 +3181,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3190,10 +3190,10 @@
         <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3204,7 +3204,7 @@
         <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3213,7 +3213,7 @@
         <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3227,19 +3227,19 @@
         <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3250,7 +3250,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>20</v>
@@ -3259,7 +3259,7 @@
         <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3273,7 +3273,7 @@
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -3282,7 +3282,7 @@
         <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3296,16 +3296,16 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3319,7 +3319,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3328,10 +3328,10 @@
         <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3342,7 +3342,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3351,10 +3351,10 @@
         <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3365,7 +3365,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3374,10 +3374,10 @@
         <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3388,7 +3388,7 @@
         <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3397,7 +3397,7 @@
         <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>21</v>
@@ -3408,22 +3408,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3434,19 +3434,19 @@
         <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3457,16 +3457,16 @@
         <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3480,16 +3480,16 @@
         <v>144</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3503,7 +3503,7 @@
         <v>144</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>20</v>
@@ -3512,7 +3512,7 @@
         <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3526,7 +3526,7 @@
         <v>144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>20</v>
@@ -3535,7 +3535,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3549,7 +3549,7 @@
         <v>144</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>20</v>
@@ -3558,7 +3558,7 @@
         <v>145</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3572,16 +3572,16 @@
         <v>144</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3595,7 +3595,7 @@
         <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3604,10 +3604,10 @@
         <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3618,7 +3618,7 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3627,10 +3627,10 @@
         <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>34</v>
@@ -3641,7 +3641,7 @@
         <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3650,10 +3650,10 @@
         <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3664,7 +3664,7 @@
         <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3673,7 +3673,7 @@
         <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>133</v>
@@ -3687,19 +3687,19 @@
         <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>34</v>
@@ -3710,7 +3710,7 @@
         <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>20</v>
@@ -3719,7 +3719,7 @@
         <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3733,19 @@
         <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3756,7 +3756,7 @@
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3765,7 +3765,7 @@
         <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>133</v>
@@ -3779,7 +3779,7 @@
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3788,10 +3788,10 @@
         <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3802,7 +3802,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3811,10 +3811,10 @@
         <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3825,7 +3825,7 @@
         <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3834,10 +3834,10 @@
         <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3848,7 +3848,7 @@
         <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3857,10 +3857,10 @@
         <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3871,7 +3871,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3880,10 +3880,10 @@
         <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>34</v>
@@ -3894,7 +3894,7 @@
         <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3903,10 +3903,10 @@
         <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3917,7 +3917,7 @@
         <v>144</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3926,7 +3926,7 @@
         <v>145</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>133</v>
@@ -3940,19 +3940,19 @@
         <v>144</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3963,7 +3963,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
@@ -3972,7 +3972,7 @@
         <v>145</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3986,7 +3986,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>20</v>
@@ -3995,7 +3995,7 @@
         <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4009,16 +4009,16 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4032,7 +4032,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -4041,10 +4041,10 @@
         <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -4055,7 +4055,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4064,10 +4064,10 @@
         <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>34</v>
@@ -4078,7 +4078,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4087,10 +4087,10 @@
         <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4101,7 +4101,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4110,7 +4110,7 @@
         <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>133</v>
@@ -4121,22 +4121,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>34</v>
@@ -4147,16 +4147,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4170,16 +4170,16 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4193,7 +4193,7 @@
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4202,7 +4202,7 @@
         <v>65</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4216,16 +4216,16 @@
         <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4239,16 +4239,16 @@
         <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4262,7 +4262,7 @@
         <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>20</v>
@@ -4271,7 +4271,7 @@
         <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4285,16 +4285,16 @@
         <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4308,7 +4308,7 @@
         <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
@@ -4317,7 +4317,7 @@
         <v>65</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4331,16 +4331,16 @@
         <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4354,7 +4354,7 @@
         <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>20</v>
@@ -4363,7 +4363,7 @@
         <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4377,16 +4377,16 @@
         <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4400,7 +4400,7 @@
         <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4409,7 +4409,7 @@
         <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4432,7 +4432,7 @@
         <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4446,7 +4446,7 @@
         <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4455,7 +4455,7 @@
         <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4469,16 +4469,16 @@
         <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4492,16 +4492,16 @@
         <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4515,7 +4515,7 @@
         <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4538,7 +4538,7 @@
         <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4547,7 +4547,7 @@
         <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4561,7 +4561,7 @@
         <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4570,7 +4570,7 @@
         <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4584,16 +4584,16 @@
         <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4607,7 +4607,7 @@
         <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4616,7 +4616,7 @@
         <v>65</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4627,19 +4627,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4653,16 +4653,16 @@
         <v>164</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4676,16 +4676,16 @@
         <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4699,7 +4699,7 @@
         <v>164</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -4708,7 +4708,7 @@
         <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4722,7 +4722,7 @@
         <v>164</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
@@ -4731,7 +4731,7 @@
         <v>169</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4745,7 +4745,7 @@
         <v>164</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>20</v>
@@ -4754,7 +4754,7 @@
         <v>169</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4768,7 +4768,7 @@
         <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>20</v>
@@ -4777,7 +4777,7 @@
         <v>169</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4791,7 +4791,7 @@
         <v>164</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>20</v>
@@ -4800,7 +4800,7 @@
         <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4814,7 +4814,7 @@
         <v>164</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
@@ -4823,7 +4823,7 @@
         <v>169</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4837,7 +4837,7 @@
         <v>164</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>20</v>
@@ -4846,7 +4846,7 @@
         <v>169</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4860,19 +4860,19 @@
         <v>164</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>34</v>
@@ -4883,7 +4883,7 @@
         <v>164</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4892,7 +4892,7 @@
         <v>169</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>22</v>
@@ -4906,19 +4906,19 @@
         <v>164</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4926,19 +4926,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4952,16 +4952,16 @@
         <v>191</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4975,16 +4975,16 @@
         <v>191</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4998,7 +4998,7 @@
         <v>191</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
@@ -5007,7 +5007,7 @@
         <v>193</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5021,7 +5021,7 @@
         <v>191</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
@@ -5030,7 +5030,7 @@
         <v>193</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5044,7 +5044,7 @@
         <v>191</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>20</v>
@@ -5053,7 +5053,7 @@
         <v>193</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5067,7 +5067,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>20</v>
@@ -5076,7 +5076,7 @@
         <v>193</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5090,7 +5090,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>20</v>
@@ -5099,7 +5099,7 @@
         <v>193</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5113,7 +5113,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>20</v>
@@ -5122,7 +5122,7 @@
         <v>193</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5136,7 +5136,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>20</v>
@@ -5145,7 +5145,7 @@
         <v>193</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5159,19 +5159,19 @@
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>34</v>
@@ -5182,7 +5182,7 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5191,7 +5191,7 @@
         <v>193</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>22</v>
@@ -5205,19 +5205,19 @@
         <v>191</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>34</v>
@@ -5225,25 +5225,25 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198">
@@ -5251,19 +5251,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>197</v>
@@ -5274,16 +5274,16 @@
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5297,16 +5297,16 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5320,7 +5320,7 @@
         <v>194</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>20</v>
@@ -5329,7 +5329,7 @@
         <v>195</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5343,7 +5343,7 @@
         <v>194</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>20</v>
@@ -5352,7 +5352,7 @@
         <v>195</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5366,7 +5366,7 @@
         <v>194</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>20</v>
@@ -5375,7 +5375,7 @@
         <v>195</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5389,16 +5389,16 @@
         <v>194</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5412,7 +5412,7 @@
         <v>194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5421,10 +5421,10 @@
         <v>195</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>197</v>
@@ -5435,7 +5435,7 @@
         <v>194</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5444,10 +5444,10 @@
         <v>195</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>197</v>
@@ -5458,7 +5458,7 @@
         <v>194</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5467,10 +5467,10 @@
         <v>195</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>197</v>
@@ -5481,7 +5481,7 @@
         <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5490,7 +5490,7 @@
         <v>195</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>196</v>
@@ -5504,19 +5504,19 @@
         <v>194</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>197</v>
@@ -5527,7 +5527,7 @@
         <v>194</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>20</v>
@@ -5536,7 +5536,7 @@
         <v>195</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5550,19 +5550,19 @@
         <v>194</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>197</v>
@@ -5573,7 +5573,7 @@
         <v>194</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5582,7 +5582,7 @@
         <v>195</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>196</v>
@@ -5596,7 +5596,7 @@
         <v>194</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5605,10 +5605,10 @@
         <v>195</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>197</v>
@@ -5619,7 +5619,7 @@
         <v>194</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5628,10 +5628,10 @@
         <v>195</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>197</v>
@@ -5642,7 +5642,7 @@
         <v>194</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5651,10 +5651,10 @@
         <v>195</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>197</v>
@@ -5665,7 +5665,7 @@
         <v>194</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -5674,10 +5674,10 @@
         <v>195</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>197</v>
@@ -5688,7 +5688,7 @@
         <v>194</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
@@ -5697,10 +5697,10 @@
         <v>195</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>197</v>
@@ -5711,7 +5711,7 @@
         <v>194</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5720,10 +5720,10 @@
         <v>195</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>197</v>
@@ -5734,7 +5734,7 @@
         <v>194</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5743,7 +5743,7 @@
         <v>195</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>196</v>
@@ -5757,19 +5757,19 @@
         <v>194</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>197</v>
@@ -5780,7 +5780,7 @@
         <v>194</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>20</v>
@@ -5789,7 +5789,7 @@
         <v>195</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5803,7 +5803,7 @@
         <v>194</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>20</v>
@@ -5812,7 +5812,7 @@
         <v>195</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,25 +5823,25 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224">
@@ -5849,19 +5849,19 @@
         <v>198</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>34</v>
@@ -5872,19 +5872,19 @@
         <v>198</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>34</v>
@@ -5895,16 +5895,16 @@
         <v>198</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5918,44 +5918,21 @@
         <v>198</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Autorizzazione del tribunale</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -700,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -815,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -835,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -855,13 +861,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -878,13 +884,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -901,13 +907,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -924,7 +930,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -947,7 +953,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1016,7 +1022,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1039,7 +1045,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1091,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -1114,7 +1120,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -1137,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
@@ -1160,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
@@ -1482,7 +1488,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>32</v>
@@ -1505,7 +1511,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -2724,7 +2730,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>132</v>
@@ -2770,7 +2776,7 @@
         <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>132</v>
@@ -2793,7 +2799,7 @@
         <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>132</v>
@@ -2816,7 +2822,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>132</v>
@@ -2839,7 +2845,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>132</v>
@@ -2977,7 +2983,7 @@
         <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>132</v>
@@ -3000,7 +3006,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>132</v>
@@ -3230,7 +3236,7 @@
         <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>132</v>
@@ -3253,7 +3259,7 @@
         <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>132</v>
@@ -3276,7 +3282,7 @@
         <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>132</v>
@@ -3437,7 +3443,7 @@
         <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>145</v>
@@ -3483,7 +3489,7 @@
         <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>145</v>
@@ -3506,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>145</v>
@@ -3529,7 +3535,7 @@
         <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>145</v>
@@ -3552,7 +3558,7 @@
         <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>145</v>
@@ -3690,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>145</v>
@@ -3713,7 +3719,7 @@
         <v>102</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>145</v>
@@ -3943,7 +3949,7 @@
         <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>145</v>
@@ -3966,7 +3972,7 @@
         <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>145</v>
@@ -3989,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>145</v>
@@ -4150,7 +4156,7 @@
         <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>147</v>
@@ -4242,7 +4248,7 @@
         <v>83</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>147</v>
@@ -4265,7 +4271,7 @@
         <v>85</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>147</v>
@@ -4288,7 +4294,7 @@
         <v>152</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>65</v>
@@ -4311,7 +4317,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>65</v>
@@ -4334,7 +4340,7 @@
         <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>147</v>
@@ -4357,7 +4363,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>147</v>
@@ -4472,7 +4478,7 @@
         <v>158</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>65</v>
@@ -4633,7 +4639,7 @@
         <v>165</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>166</v>
@@ -4679,7 +4685,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>169</v>
@@ -4702,7 +4708,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>169</v>
@@ -4725,7 +4731,7 @@
         <v>175</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>169</v>
@@ -4748,7 +4754,7 @@
         <v>177</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>169</v>
@@ -4771,7 +4777,7 @@
         <v>179</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>169</v>
@@ -4794,7 +4800,7 @@
         <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>169</v>
@@ -4817,7 +4823,7 @@
         <v>182</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>169</v>
@@ -4840,7 +4846,7 @@
         <v>184</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>169</v>
@@ -4909,7 +4915,7 @@
         <v>189</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>169</v>
@@ -4918,7 +4924,7 @@
         <v>190</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4926,19 +4932,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4949,19 +4955,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4972,19 +4978,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4995,19 +5001,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5018,19 +5024,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5041,19 +5047,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5064,19 +5070,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5087,19 +5093,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5110,19 +5116,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5133,19 +5139,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5156,22 +5162,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>34</v>
@@ -5179,19 +5185,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>22</v>
@@ -5202,22 +5208,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>34</v>
@@ -5225,10 +5231,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5237,651 +5243,651 @@
         <v>195</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5892,22 +5898,22 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>34</v>
@@ -5915,24 +5921,70 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="2" t="s">
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -5559,7 +5559,7 @@
         <v>100</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>197</v>
@@ -5582,7 +5582,7 @@
         <v>102</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>197</v>
@@ -5591,7 +5591,7 @@
         <v>103</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>199</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -706,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1784,7 +1796,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1793,7 +1805,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1807,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1816,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1830,7 +1842,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2126,65 +2138,65 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2276,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2701,114 +2713,114 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2885,22 +2897,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>34</v>
@@ -2908,22 +2920,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>34</v>
@@ -2931,22 +2943,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2954,22 +2966,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>21</v>
@@ -3046,22 +3058,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -3069,22 +3081,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3138,22 +3150,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3161,22 +3173,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
@@ -3207,22 +3219,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3230,22 +3242,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3276,22 +3288,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3334,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>21</v>
@@ -3345,22 +3357,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3368,22 +3380,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3391,22 +3403,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3414,22 +3426,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3460,22 +3472,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>34</v>
@@ -3483,19 +3495,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3506,22 +3518,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>34</v>
@@ -3529,22 +3541,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>34</v>
@@ -3552,22 +3564,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>34</v>
@@ -3575,19 +3587,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3598,22 +3610,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>34</v>
@@ -3621,19 +3633,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3644,22 +3656,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>34</v>
@@ -3667,22 +3679,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>34</v>
@@ -3690,19 +3702,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3713,19 +3725,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3736,22 +3748,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>34</v>
@@ -3759,22 +3771,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>34</v>
@@ -3782,22 +3794,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>34</v>
@@ -3805,22 +3817,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>34</v>
@@ -3828,22 +3840,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>34</v>
@@ -3851,22 +3863,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>34</v>
@@ -3874,19 +3886,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3897,22 +3909,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>34</v>
@@ -3920,22 +3932,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -3943,22 +3955,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>34</v>
@@ -3966,19 +3978,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3989,22 +4001,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>34</v>
@@ -4012,19 +4024,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4035,22 +4047,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>34</v>
@@ -4058,19 +4070,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4081,22 +4093,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>34</v>
@@ -4104,22 +4116,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>34</v>
@@ -4127,19 +4139,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4150,19 +4162,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4173,19 +4185,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4196,19 +4208,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4219,22 +4231,22 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>34</v>
@@ -4242,19 +4254,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4265,22 +4277,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>34</v>
@@ -4288,22 +4300,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>34</v>
@@ -4311,19 +4323,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4334,19 +4346,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4357,19 +4369,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4380,19 +4392,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4403,19 +4415,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4426,19 +4438,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4449,19 +4461,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4472,10 +4484,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -4484,7 +4496,7 @@
         <v>65</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4495,19 +4507,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4518,19 +4530,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4541,19 +4553,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4564,19 +4576,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4587,19 +4599,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4610,19 +4622,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4633,19 +4645,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4656,19 +4668,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4679,19 +4691,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4702,19 +4714,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4725,19 +4737,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4748,19 +4760,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4771,19 +4783,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4794,19 +4806,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4817,19 +4829,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4840,19 +4852,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4863,22 +4875,22 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>34</v>
@@ -4886,22 +4898,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>34</v>
@@ -4909,22 +4921,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4932,19 +4944,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4955,19 +4967,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4978,19 +4990,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5001,19 +5013,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5024,19 +5036,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5047,22 +5059,22 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>34</v>
@@ -5070,22 +5082,22 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>34</v>
@@ -5093,22 +5105,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>34</v>
@@ -5116,19 +5128,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5139,19 +5151,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5162,19 +5174,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5185,22 +5197,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>34</v>
@@ -5208,22 +5220,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>34</v>
@@ -5231,22 +5243,22 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>34</v>
@@ -5254,19 +5266,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5277,600 +5289,600 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225">
@@ -5878,22 +5890,22 @@
         <v>200</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E225" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="226">
@@ -5901,22 +5913,22 @@
         <v>200</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G226" s="2" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227">
@@ -5924,22 +5936,22 @@
         <v>200</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228">
@@ -5947,22 +5959,22 @@
         <v>200</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229">
@@ -5970,21 +5982,251 @@
         <v>200</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
+      <c r="C237" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="2" t="s">
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento dell'altro genitore</t>
   </si>
   <si>
     <t>Autorizzazione del tribunale</t>
@@ -718,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -873,13 +876,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -896,7 +899,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -919,7 +922,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -942,13 +945,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1011,7 +1014,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1079,776 +1082,776 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>103</v>
@@ -1857,642 +1860,642 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2501,2519 +2504,2519 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>186</v>
@@ -5022,320 +5025,320 @@
         <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F190" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>186</v>
@@ -5344,890 +5347,913 @@
         <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E207" s="2" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F222" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F223" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F224" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F226" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F228" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F230" s="2" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F231" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F236" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E239" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>34</v>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_060.xlsx
@@ -65,19 +65,19 @@
     <t>Atto di pre-riconoscimento</t>
   </si>
   <si>
+    <t>Atto di pre-riconoscimento dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Autorizzazione del tribunale</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>27</t>
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -1135,7 +1135,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -1158,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
@@ -1181,7 +1181,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -1204,7 +1204,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -1526,7 +1526,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -1549,7 +1549,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -2860,7 +2860,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>137</v>
@@ -2906,7 +2906,7 @@
         <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>137</v>
@@ -2975,7 +2975,7 @@
         <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>137</v>
@@ -2998,7 +2998,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>137</v>
@@ -3021,7 +3021,7 @@
         <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>137</v>
@@ -3159,7 +3159,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>137</v>
@@ -3182,7 +3182,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>137</v>
@@ -3412,7 +3412,7 @@
         <v>127</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>137</v>
@@ -3435,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>137</v>
@@ -3458,7 +3458,7 @@
         <v>131</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>137</v>
@@ -3619,7 +3619,7 @@
         <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>150</v>
@@ -3665,7 +3665,7 @@
         <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>150</v>
@@ -3734,7 +3734,7 @@
         <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>150</v>
@@ -3757,7 +3757,7 @@
         <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>150</v>
@@ -3780,7 +3780,7 @@
         <v>94</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>150</v>
@@ -3918,7 +3918,7 @@
         <v>105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>150</v>
@@ -3941,7 +3941,7 @@
         <v>107</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>150</v>
@@ -4171,7 +4171,7 @@
         <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>150</v>
@@ -4194,7 +4194,7 @@
         <v>129</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>150</v>
@@ -4217,7 +4217,7 @@
         <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>150</v>
@@ -4378,7 +4378,7 @@
         <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>152</v>
@@ -4470,7 +4470,7 @@
         <v>84</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>152</v>
@@ -4493,7 +4493,7 @@
         <v>90</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>152</v>
@@ -4516,7 +4516,7 @@
         <v>157</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>66</v>
@@ -4539,7 +4539,7 @@
         <v>159</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>66</v>
@@ -4562,7 +4562,7 @@
         <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>152</v>
@@ -4585,7 +4585,7 @@
         <v>161</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>152</v>
@@ -4700,7 +4700,7 @@
         <v>163</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>66</v>
@@ -4861,7 +4861,7 @@
         <v>170</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>171</v>
@@ -4907,7 +4907,7 @@
         <v>176</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>174</v>
@@ -4930,7 +4930,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>174</v>
@@ -4953,7 +4953,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>174</v>
@@ -4976,7 +4976,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>174</v>
@@ -4999,7 +4999,7 @@
         <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>174</v>
@@ -5022,7 +5022,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>174</v>
@@ -5045,7 +5045,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>174</v>
@@ -5068,7 +5068,7 @@
         <v>189</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>174</v>
@@ -5160,7 +5160,7 @@
         <v>196</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>174</v>
@@ -5183,7 +5183,7 @@
         <v>170</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>199</v>
@@ -5229,7 +5229,7 @@
         <v>176</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>200</v>
@@ -5252,7 +5252,7 @@
         <v>178</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>200</v>
@@ -5275,7 +5275,7 @@
         <v>180</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>200</v>
@@ -5298,7 +5298,7 @@
         <v>182</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>200</v>
@@ -5321,7 +5321,7 @@
         <v>184</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>200</v>
@@ -5344,7 +5344,7 @@
         <v>186</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>200</v>
@@ -5367,7 +5367,7 @@
         <v>187</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>200</v>
@@ -5390,7 +5390,7 @@
         <v>189</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>200</v>
@@ -5482,7 +5482,7 @@
         <v>196</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>200</v>
@@ -5528,7 +5528,7 @@
         <v>80</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>202</v>
@@ -5574,7 +5574,7 @@
         <v>84</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>202</v>
@@ -5643,7 +5643,7 @@
         <v>90</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>202</v>
@@ -5666,7 +5666,7 @@
         <v>92</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>202</v>
@@ -5689,7 +5689,7 @@
         <v>94</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>202</v>
@@ -6080,7 +6080,7 @@
         <v>127</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>202</v>
@@ -6103,7 +6103,7 @@
         <v>129</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>202</v>
@@ -6126,7 +6126,7 @@
         <v>135</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>202</v>
@@ -6149,7 +6149,7 @@
         <v>206</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>207</v>
@@ -6195,7 +6195,7 @@
         <v>211</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>33</v>
@@ -6218,7 +6218,7 @@
         <v>213</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>66</v>
